--- a/杨栩 第十一周.xlsx
+++ b/杨栩 第十一周.xlsx
@@ -382,7 +382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
